--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.36364133333332</v>
+        <v>30.014089</v>
       </c>
       <c r="H2">
-        <v>256.090924</v>
+        <v>90.042267</v>
       </c>
       <c r="I2">
-        <v>0.832590152283795</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="J2">
-        <v>0.8325901522837948</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N2">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q2">
-        <v>196.4139990711857</v>
+        <v>9.098651023993998</v>
       </c>
       <c r="R2">
-        <v>1767.725991640672</v>
+        <v>81.88785921594599</v>
       </c>
       <c r="S2">
-        <v>0.03144676056539995</v>
+        <v>0.00281293931138289</v>
       </c>
       <c r="T2">
-        <v>0.03144676056539993</v>
+        <v>0.002812939311382891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.36364133333332</v>
+        <v>30.014089</v>
       </c>
       <c r="H3">
-        <v>256.090924</v>
+        <v>90.042267</v>
       </c>
       <c r="I3">
-        <v>0.832590152283795</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="J3">
-        <v>0.8325901522837948</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q3">
-        <v>1448.033833847029</v>
+        <v>509.1326434211616</v>
       </c>
       <c r="R3">
-        <v>13032.30450462326</v>
+        <v>4582.193790790455</v>
       </c>
       <c r="S3">
-        <v>0.2318366994151072</v>
+        <v>0.1574034682296238</v>
       </c>
       <c r="T3">
-        <v>0.2318366994151072</v>
+        <v>0.1574034682296238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.36364133333332</v>
+        <v>30.014089</v>
       </c>
       <c r="H4">
-        <v>256.090924</v>
+        <v>90.042267</v>
       </c>
       <c r="I4">
-        <v>0.832590152283795</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="J4">
-        <v>0.8325901522837948</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N4">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q4">
-        <v>3555.84493037767</v>
+        <v>1250.95151275409</v>
       </c>
       <c r="R4">
-        <v>32002.60437339903</v>
+        <v>11258.56361478681</v>
       </c>
       <c r="S4">
-        <v>0.5693066923032879</v>
+        <v>0.3867442192892479</v>
       </c>
       <c r="T4">
-        <v>0.5693066923032878</v>
+        <v>0.3867442192892479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.690216</v>
       </c>
       <c r="I5">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="J5">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N5">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q5">
-        <v>25.83937747880533</v>
+        <v>3.404351406512</v>
       </c>
       <c r="R5">
-        <v>232.554397309248</v>
+        <v>30.639162658608</v>
       </c>
       <c r="S5">
-        <v>0.004137000013122708</v>
+        <v>0.001052489415836019</v>
       </c>
       <c r="T5">
-        <v>0.004137000013122706</v>
+        <v>0.001052489415836019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.690216</v>
       </c>
       <c r="I6">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="J6">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q6">
         <v>190.4970776614267</v>
@@ -818,10 +818,10 @@
         <v>1714.47369895284</v>
       </c>
       <c r="S6">
-        <v>0.03049943495858539</v>
+        <v>0.0588940840839243</v>
       </c>
       <c r="T6">
-        <v>0.03049943495858539</v>
+        <v>0.0588940840839243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.690216</v>
       </c>
       <c r="I7">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="J7">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N7">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q7">
-        <v>467.791602668936</v>
+        <v>468.05603717432</v>
       </c>
       <c r="R7">
-        <v>4210.124424020424</v>
+        <v>4212.50433456888</v>
       </c>
       <c r="S7">
-        <v>0.07489552981558732</v>
+        <v>0.1447042230134669</v>
       </c>
       <c r="T7">
-        <v>0.07489552981558731</v>
+        <v>0.1447042230134669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.934092333333333</v>
+        <v>13.63015266666667</v>
       </c>
       <c r="H8">
-        <v>17.802277</v>
+        <v>40.890458</v>
       </c>
       <c r="I8">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="J8">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N8">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q8">
-        <v>13.65380843462844</v>
+        <v>4.131926260289333</v>
       </c>
       <c r="R8">
-        <v>122.884275911656</v>
+        <v>37.187336342604</v>
       </c>
       <c r="S8">
-        <v>0.002186035856303625</v>
+        <v>0.001277426486481632</v>
       </c>
       <c r="T8">
-        <v>0.002186035856303624</v>
+        <v>0.001277426486481632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.934092333333333</v>
+        <v>13.63015266666667</v>
       </c>
       <c r="H9">
-        <v>17.802277</v>
+        <v>40.890458</v>
       </c>
       <c r="I9">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="J9">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q9">
-        <v>100.6607302315672</v>
+        <v>231.2099380199078</v>
       </c>
       <c r="R9">
-        <v>905.946572084105</v>
+        <v>2080.88944217917</v>
       </c>
       <c r="S9">
-        <v>0.01611623355208588</v>
+        <v>0.07148087360681141</v>
       </c>
       <c r="T9">
-        <v>0.01611623355208588</v>
+        <v>0.07148087360681141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.934092333333333</v>
+        <v>13.63015266666667</v>
       </c>
       <c r="H10">
-        <v>17.802277</v>
+        <v>40.890458</v>
       </c>
       <c r="I10">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="J10">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N10">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q10">
-        <v>247.1861768112836</v>
+        <v>568.0885432649933</v>
       </c>
       <c r="R10">
-        <v>2224.675591301553</v>
+        <v>5112.79688938494</v>
       </c>
       <c r="S10">
-        <v>0.03957561352052016</v>
+        <v>0.1756302765632254</v>
       </c>
       <c r="T10">
-        <v>0.03957561352052015</v>
+        <v>0.1756302765632254</v>
       </c>
     </row>
   </sheetData>
